--- a/DSE_Company_Details.xlsx
+++ b/DSE_Company_Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MustakHomeFolder/Desktop/Github/DSE_COMPANY_SCRAPER_Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC727FDF-17DA-0B4B-8D6B-4DC8421FB8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277E75BF-81C3-7347-AD57-8D96F2BEF766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3771,7 +3771,7 @@
   <dimension ref="A1:I371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
